--- a/archivo_completo_con_filtro.xlsx
+++ b/archivo_completo_con_filtro.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$AQ$599</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$AQ$629</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ599"/>
+  <dimension ref="A1:AQ629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85210,6 +85210,11 @@
           <t>17/04/2025 13:08:29</t>
         </is>
       </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>21/04/2025 10:59:49</t>
+        </is>
+      </c>
       <c r="J583" t="inlineStr">
         <is>
           <t>2435335</t>
@@ -85319,7 +85324,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -85329,32 +85334,32 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>81274800-9</t>
+          <t>61603000-0</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>ASOC.D/ASEGURADORES D/CHILE</t>
+          <t>FONASA - FONDO NACIONAL DE SALUD</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>92771</t>
         </is>
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>17/04/2025</t>
         </is>
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>10/04/2025 13:21:49</t>
+          <t>17/04/2025 17:01:26</t>
         </is>
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>29800</t>
+          <t>983580</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -85369,7 +85374,7 @@
       </c>
       <c r="M584" t="inlineStr">
         <is>
-          <t>29800</t>
+          <t>983580</t>
         </is>
       </c>
       <c r="N584" t="inlineStr">
@@ -85420,16 +85425,6 @@
       <c r="W584" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="X584" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y584" t="inlineStr">
-        <is>
-          <t>91644</t>
         </is>
       </c>
       <c r="AB584" t="inlineStr">
@@ -85471,7 +85466,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -85481,32 +85476,32 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>61979440-0</t>
+          <t>61603000-0</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>INSTITUTO DE PREVISION SOCIAL</t>
+          <t>FONASA - FONDO NACIONAL DE SALUD</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>92775</t>
         </is>
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>17/04/2025</t>
         </is>
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>10/04/2025 13:21:49</t>
+          <t>17/04/2025 17:01:27</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>27600</t>
+          <t>209954</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -85521,7 +85516,7 @@
       </c>
       <c r="M585" t="inlineStr">
         <is>
-          <t>27600</t>
+          <t>209954</t>
         </is>
       </c>
       <c r="N585" t="inlineStr">
@@ -85572,16 +85567,6 @@
       <c r="W585" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="X585" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y585" t="inlineStr">
-        <is>
-          <t>91658</t>
         </is>
       </c>
       <c r="AB585" t="inlineStr">
@@ -85623,7 +85608,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -85633,32 +85618,32 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>61979440-0</t>
+          <t>76296619-0</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>INSTITUTO DE PREVISION SOCIAL</t>
+          <t>COLMENA GOLDEN CROSS SA.</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>92774</t>
         </is>
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>17/04/2025</t>
         </is>
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>10/04/2025 13:21:48</t>
+          <t>17/04/2025 17:01:27</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>174715</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -85673,7 +85658,7 @@
       </c>
       <c r="M586" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>174715</t>
         </is>
       </c>
       <c r="N586" t="inlineStr">
@@ -85728,12 +85713,7 @@
       </c>
       <c r="X586" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y586" t="inlineStr">
-        <is>
-          <t>91648</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB586" t="inlineStr">
@@ -85775,7 +85755,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -85785,32 +85765,32 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>61979440-0</t>
+          <t>96502530-8</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>INSTITUTO DE PREVISION SOCIAL</t>
+          <t>ISAPRE VIDA TRES</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>92779</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>17/04/2025</t>
         </is>
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>10/04/2025 13:21:51</t>
+          <t>17/04/2025 17:01:29</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>21200</t>
+          <t>34560</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -85825,7 +85805,7 @@
       </c>
       <c r="M587" t="inlineStr">
         <is>
-          <t>21200</t>
+          <t>34560</t>
         </is>
       </c>
       <c r="N587" t="inlineStr">
@@ -85880,12 +85860,7 @@
       </c>
       <c r="X587" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y587" t="inlineStr">
-        <is>
-          <t>89988</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB587" t="inlineStr">
@@ -85927,7 +85902,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -85937,32 +85912,32 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>76265736-8</t>
+          <t>96501450-0</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>AFP PROVIDA SA</t>
+          <t>ISAPRE CRUZ BLANCA</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>92778</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>17/04/2025</t>
         </is>
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>15/04/2025 12:24:32</t>
+          <t>17/04/2025 17:01:29</t>
         </is>
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>62200</t>
+          <t>104550</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -85977,7 +85952,7 @@
       </c>
       <c r="M588" t="inlineStr">
         <is>
-          <t>62200</t>
+          <t>104550</t>
         </is>
       </c>
       <c r="N588" t="inlineStr">
@@ -86032,12 +86007,7 @@
       </c>
       <c r="X588" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y588" t="inlineStr">
-        <is>
-          <t>92294</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB588" t="inlineStr">
@@ -86079,7 +86049,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -86089,32 +86059,32 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>81274800-9</t>
+          <t>61603000-0</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>ASOC.D/ASEGURADORES D/CHILE</t>
+          <t>FONASA - FONDO NACIONAL DE SALUD</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>92772</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>17/04/2025</t>
         </is>
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>15/04/2025 12:24:30</t>
+          <t>17/04/2025 17:01:26</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>27600</t>
+          <t>314854</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -86129,7 +86099,7 @@
       </c>
       <c r="M589" t="inlineStr">
         <is>
-          <t>27600</t>
+          <t>314854</t>
         </is>
       </c>
       <c r="N589" t="inlineStr">
@@ -86180,16 +86150,6 @@
       <c r="W589" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="X589" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y589" t="inlineStr">
-        <is>
-          <t>92315</t>
         </is>
       </c>
       <c r="AB589" t="inlineStr">
@@ -86231,7 +86191,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -86241,32 +86201,32 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>61608408-9</t>
+          <t>61603000-0</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>HOSPITAL CALVO MACKENA</t>
+          <t>FONASA - FONDO NACIONAL DE SALUD</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>11503</t>
+          <t>92773</t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>17/04/2025</t>
         </is>
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>01/04/2025 18:11:29</t>
+          <t>17/04/2025 17:01:27</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>180000</t>
+          <t>314854</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -86281,7 +86241,7 @@
       </c>
       <c r="M590" t="inlineStr">
         <is>
-          <t>180000</t>
+          <t>314854</t>
         </is>
       </c>
       <c r="N590" t="inlineStr">
@@ -86332,16 +86292,6 @@
       <c r="W590" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="X590" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y590" t="inlineStr">
-        <is>
-          <t>91482</t>
         </is>
       </c>
       <c r="AB590" t="inlineStr">
@@ -86383,7 +86333,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -86393,32 +86343,32 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>61608408-9</t>
+          <t>61603000-0</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>HOSPITAL CALVO MACKENA</t>
+          <t>FONASA - FONDO NACIONAL DE SALUD</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>11498</t>
+          <t>92770</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>17/04/2025</t>
         </is>
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>01/04/2025 18:11:28</t>
+          <t>17/04/2025 17:01:25</t>
         </is>
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>563160</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -86433,7 +86383,7 @@
       </c>
       <c r="M591" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>563160</t>
         </is>
       </c>
       <c r="N591" t="inlineStr">
@@ -86484,16 +86434,6 @@
       <c r="W591" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="X591" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y591" t="inlineStr">
-        <is>
-          <t>91750</t>
         </is>
       </c>
       <c r="AB591" t="inlineStr">
@@ -86535,7 +86475,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -86545,32 +86485,32 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>61608408-9</t>
+          <t>96572800-7</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>HOSPITAL CALVO MACKENA</t>
+          <t>ISAPRE BANMEDICA</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>11499</t>
+          <t>92780</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>17/04/2025</t>
         </is>
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>01/04/2025 18:11:28</t>
+          <t>17/04/2025 17:01:30</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>150000</t>
+          <t>172800</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -86585,7 +86525,7 @@
       </c>
       <c r="M592" t="inlineStr">
         <is>
-          <t>150000</t>
+          <t>172800</t>
         </is>
       </c>
       <c r="N592" t="inlineStr">
@@ -86640,12 +86580,7 @@
       </c>
       <c r="X592" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y592" t="inlineStr">
-        <is>
-          <t>88711</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB592" t="inlineStr">
@@ -86687,7 +86622,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -86697,32 +86632,32 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>61608408-9</t>
+          <t>96856780-2</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>HOSPITAL CALVO MACKENA</t>
+          <t>ISAPRE CONSALUD</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>11500</t>
+          <t>92777</t>
         </is>
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>17/04/2025</t>
         </is>
       </c>
       <c r="G593" t="inlineStr">
         <is>
-          <t>01/04/2025 18:11:28</t>
+          <t>17/04/2025 17:01:28</t>
         </is>
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>150000</t>
+          <t>848025</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -86737,7 +86672,7 @@
       </c>
       <c r="M593" t="inlineStr">
         <is>
-          <t>150000</t>
+          <t>848025</t>
         </is>
       </c>
       <c r="N593" t="inlineStr">
@@ -86792,12 +86727,7 @@
       </c>
       <c r="X593" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y593" t="inlineStr">
-        <is>
-          <t>91478</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB593" t="inlineStr">
@@ -86839,7 +86769,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -86849,32 +86779,32 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>61608408-9</t>
+          <t>96501450-0</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>HOSPITAL CALVO MACKENA</t>
+          <t>ISAPRE CRUZ BLANCA</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>11502</t>
+          <t>92794</t>
         </is>
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>17/04/2025</t>
         </is>
       </c>
       <c r="G594" t="inlineStr">
         <is>
-          <t>01/04/2025 18:11:29</t>
+          <t>17/04/2025 17:01:33</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>160000</t>
+          <t>456040</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -86889,7 +86819,7 @@
       </c>
       <c r="M594" t="inlineStr">
         <is>
-          <t>160000</t>
+          <t>456040</t>
         </is>
       </c>
       <c r="N594" t="inlineStr">
@@ -86944,12 +86874,7 @@
       </c>
       <c r="X594" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y594" t="inlineStr">
-        <is>
-          <t>91481</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB594" t="inlineStr">
@@ -86991,7 +86916,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -87001,32 +86926,32 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>61608408-9</t>
+          <t>61603000-0</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>HOSPITAL CALVO MACKENA</t>
+          <t>FONASA - FONDO NACIONAL DE SALUD</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>11501</t>
+          <t>92781</t>
         </is>
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>17/04/2025</t>
         </is>
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>01/04/2025 18:11:29</t>
+          <t>17/04/2025 17:01:30</t>
         </is>
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>160000</t>
+          <t>9375090</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -87041,7 +86966,7 @@
       </c>
       <c r="M595" t="inlineStr">
         <is>
-          <t>160000</t>
+          <t>9375090</t>
         </is>
       </c>
       <c r="N595" t="inlineStr">
@@ -87092,16 +87017,6 @@
       <c r="W595" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="X595" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y595" t="inlineStr">
-        <is>
-          <t>91480</t>
         </is>
       </c>
       <c r="AB595" t="inlineStr">
@@ -87143,7 +87058,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -87153,32 +87068,32 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>61103005-3</t>
+          <t>96856780-2</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>FUERZA AEREA DE CHILE-DIV.D/SA</t>
+          <t>ISAPRE CONSALUD</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>11504</t>
+          <t>92776</t>
         </is>
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>02/04/2025</t>
+          <t>17/04/2025</t>
         </is>
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>02/04/2025 18:33:59</t>
+          <t>17/04/2025 17:01:28</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>96650</t>
+          <t>197412</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -87193,7 +87108,7 @@
       </c>
       <c r="M596" t="inlineStr">
         <is>
-          <t>96650</t>
+          <t>197412</t>
         </is>
       </c>
       <c r="N596" t="inlineStr">
@@ -87248,12 +87163,7 @@
       </c>
       <c r="X596" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y596" t="inlineStr">
-        <is>
-          <t>91920</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB596" t="inlineStr">
@@ -87295,7 +87205,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -87315,22 +87225,22 @@
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>11536</t>
+          <t>92782</t>
         </is>
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>04/04/2025</t>
+          <t>17/04/2025</t>
         </is>
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>04/04/2025 17:32:44</t>
+          <t>17/04/2025 17:01:31</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>1235290</t>
+          <t>11950</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -87345,7 +87255,7 @@
       </c>
       <c r="M597" t="inlineStr">
         <is>
-          <t>1235290</t>
+          <t>11950</t>
         </is>
       </c>
       <c r="N597" t="inlineStr">
@@ -87396,16 +87306,6 @@
       <c r="W597" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="X597" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y597" t="inlineStr">
-        <is>
-          <t>92085</t>
         </is>
       </c>
       <c r="AB597" t="inlineStr">
@@ -87447,7 +87347,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -87457,32 +87357,32 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>81274800-9</t>
+          <t>76334370-7</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>ASOC.D/ASEGURADORES D/CHILE</t>
+          <t>ISALUD ISAPRE DE CODELCO LTDA</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>11537</t>
+          <t>92783</t>
         </is>
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>17/04/2025</t>
         </is>
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>10/04/2025 13:21:48</t>
+          <t>17/04/2025 17:01:31</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>282231</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -87497,7 +87397,7 @@
       </c>
       <c r="M598" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>282231</t>
         </is>
       </c>
       <c r="N598" t="inlineStr">
@@ -87552,12 +87452,7 @@
       </c>
       <c r="X598" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y598" t="inlineStr">
-        <is>
-          <t>86693</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB598" t="inlineStr">
@@ -87599,157 +87494,4627 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>96856780-2</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>ISAPRE CONSALUD</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>92805</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>17/04/2025 17:01:34</t>
+        </is>
+      </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>1066175</t>
+        </is>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M599" t="inlineStr">
+        <is>
+          <t>1066175</t>
+        </is>
+      </c>
+      <c r="N599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S599" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE599" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>61603000-0</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>FONASA - FONDO NACIONAL DE SALUD</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>92784</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>17/04/2025 17:01:32</t>
+        </is>
+      </c>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>1525520</t>
+        </is>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M600" t="inlineStr">
+        <is>
+          <t>1525520</t>
+        </is>
+      </c>
+      <c r="N600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S600" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE600" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>96856780-2</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>ISAPRE CONSALUD</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>92806</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>17/04/2025 17:01:35</t>
+        </is>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>1184342</t>
+        </is>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M601" t="inlineStr">
+        <is>
+          <t>1184342</t>
+        </is>
+      </c>
+      <c r="N601" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O601" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P601" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q601" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R601" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S601" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T601" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U601" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V601" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W601" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X601" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB601" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD601" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE601" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF601" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG601" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH601" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL601" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>96856780-2</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>ISAPRE CONSALUD</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>92792</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>17/04/2025 17:01:33</t>
+        </is>
+      </c>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>296118</t>
+        </is>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M602" t="inlineStr">
+        <is>
+          <t>296118</t>
+        </is>
+      </c>
+      <c r="N602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S602" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE602" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL602" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>96856780-2</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>ISAPRE CONSALUD</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>92807</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>17/04/2025 17:01:35</t>
+        </is>
+      </c>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>1461924</t>
+        </is>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M603" t="inlineStr">
+        <is>
+          <t>1461924</t>
+        </is>
+      </c>
+      <c r="N603" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O603" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P603" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q603" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R603" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S603" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T603" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U603" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V603" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W603" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X603" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB603" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD603" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE603" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF603" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG603" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH603" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL603" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>96856780-2</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>ISAPRE CONSALUD</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>92810</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>17/04/2025 17:01:36</t>
+        </is>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>1077561</t>
+        </is>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M604" t="inlineStr">
+        <is>
+          <t>1077561</t>
+        </is>
+      </c>
+      <c r="N604" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O604" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P604" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q604" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R604" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S604" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T604" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U604" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V604" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W604" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X604" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB604" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD604" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE604" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF604" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG604" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH604" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL604" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>96502530-8</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>ISAPRE VIDA TRES</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>92800</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>17/04/2025 17:01:34</t>
+        </is>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>69120</t>
+        </is>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M605" t="inlineStr">
+        <is>
+          <t>69120</t>
+        </is>
+      </c>
+      <c r="N605" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O605" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P605" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q605" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R605" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S605" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T605" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U605" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V605" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W605" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X605" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB605" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD605" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE605" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF605" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG605" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH605" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL605" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>61603000-0</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>FONASA - FONDO NACIONAL DE SALUD</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>92804</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>17/04/2025 17:01:34</t>
+        </is>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>1226320</t>
+        </is>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M606" t="inlineStr">
+        <is>
+          <t>1226320</t>
+        </is>
+      </c>
+      <c r="N606" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O606" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P606" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q606" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R606" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S606" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T606" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U606" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V606" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W606" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB606" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD606" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE606" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF606" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG606" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH606" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL606" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>76296619-0</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>COLMENA GOLDEN CROSS SA.</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>92785</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>17/04/2025 17:01:32</t>
+        </is>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>859252</t>
+        </is>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M607" t="inlineStr">
+        <is>
+          <t>859252</t>
+        </is>
+      </c>
+      <c r="N607" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O607" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P607" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q607" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R607" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S607" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T607" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U607" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V607" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W607" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X607" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB607" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD607" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE607" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF607" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG607" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH607" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL607" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>96856780-2</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>ISAPRE CONSALUD</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>92809</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>17/04/2025 17:01:36</t>
+        </is>
+      </c>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>1066175</t>
+        </is>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M608" t="inlineStr">
+        <is>
+          <t>1066175</t>
+        </is>
+      </c>
+      <c r="N608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S608" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE608" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>96856780-2</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>ISAPRE CONSALUD</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>92808</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>17/04/2025 17:01:36</t>
+        </is>
+      </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>1461924</t>
+        </is>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M609" t="inlineStr">
+        <is>
+          <t>1461924</t>
+        </is>
+      </c>
+      <c r="N609" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O609" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P609" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q609" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R609" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S609" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T609" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U609" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V609" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W609" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X609" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB609" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD609" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE609" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF609" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG609" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH609" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL609" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>96501450-0</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>ISAPRE CRUZ BLANCA</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>92811</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>17/04/2025 17:01:37</t>
+        </is>
+      </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>2703566</t>
+        </is>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M610" t="inlineStr">
+        <is>
+          <t>2703566</t>
+        </is>
+      </c>
+      <c r="N610" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O610" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P610" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q610" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R610" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S610" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T610" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U610" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V610" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W610" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X610" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB610" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD610" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE610" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF610" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG610" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH610" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL610" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>61603000-0</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>FONASA - FONDO NACIONAL DE SALUD</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>92812</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>17/04/2025 17:01:37</t>
+        </is>
+      </c>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>1235290</t>
+        </is>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M611" t="inlineStr">
+        <is>
+          <t>1235290</t>
+        </is>
+      </c>
+      <c r="N611" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O611" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P611" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q611" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R611" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S611" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T611" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U611" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V611" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W611" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB611" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD611" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE611" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF611" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG611" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH611" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL611" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>96936100-0</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>Esencial S.A</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>92815</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>17/04/2025 17:01:38</t>
+        </is>
+      </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>36575</t>
+        </is>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M612" t="inlineStr">
+        <is>
+          <t>36575</t>
+        </is>
+      </c>
+      <c r="N612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S612" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE612" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL612" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>71235700-2</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>ISAPRE FUNDACION</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>92814</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>17/04/2025 17:04:50</t>
+        </is>
+      </c>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>424304</t>
+        </is>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M613" t="inlineStr">
+        <is>
+          <t>424304</t>
+        </is>
+      </c>
+      <c r="N613" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O613" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P613" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q613" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R613" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S613" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T613" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U613" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V613" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W613" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X613" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB613" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD613" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE613" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF613" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG613" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH613" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL613" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>81274800-9</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>ASOC.D/ASEGURADORES D/CHILE</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>10/04/2025 13:21:49</t>
+        </is>
+      </c>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>29800</t>
+        </is>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M614" t="inlineStr">
+        <is>
+          <t>29800</t>
+        </is>
+      </c>
+      <c r="N614" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O614" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P614" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q614" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R614" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S614" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T614" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U614" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V614" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W614" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X614" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y614" t="inlineStr">
+        <is>
+          <t>91644</t>
+        </is>
+      </c>
+      <c r="AB614" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD614" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE614" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF614" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG614" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH614" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL614" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>61979440-0</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>INSTITUTO DE PREVISION SOCIAL</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>10/04/2025 13:21:49</t>
+        </is>
+      </c>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>27600</t>
+        </is>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M615" t="inlineStr">
+        <is>
+          <t>27600</t>
+        </is>
+      </c>
+      <c r="N615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S615" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X615" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y615" t="inlineStr">
+        <is>
+          <t>91658</t>
+        </is>
+      </c>
+      <c r="AB615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE615" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL615" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>61979440-0</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>INSTITUTO DE PREVISION SOCIAL</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>10/04/2025 13:21:48</t>
+        </is>
+      </c>
+      <c r="J616" t="inlineStr">
+        <is>
+          <t>13800</t>
+        </is>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M616" t="inlineStr">
+        <is>
+          <t>13800</t>
+        </is>
+      </c>
+      <c r="N616" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O616" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P616" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q616" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R616" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S616" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T616" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U616" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V616" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W616" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X616" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y616" t="inlineStr">
+        <is>
+          <t>91648</t>
+        </is>
+      </c>
+      <c r="AB616" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD616" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE616" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF616" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG616" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH616" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL616" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>61979440-0</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>INSTITUTO DE PREVISION SOCIAL</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>10/04/2025 13:21:51</t>
+        </is>
+      </c>
+      <c r="J617" t="inlineStr">
+        <is>
+          <t>21200</t>
+        </is>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M617" t="inlineStr">
+        <is>
+          <t>21200</t>
+        </is>
+      </c>
+      <c r="N617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S617" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X617" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y617" t="inlineStr">
+        <is>
+          <t>89988</t>
+        </is>
+      </c>
+      <c r="AB617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE617" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL617" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>76265736-8</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>AFP PROVIDA SA</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>15/04/2025 12:24:32</t>
+        </is>
+      </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>62200</t>
+        </is>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M618" t="inlineStr">
+        <is>
+          <t>62200</t>
+        </is>
+      </c>
+      <c r="N618" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O618" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P618" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q618" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R618" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S618" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T618" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U618" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V618" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W618" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X618" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y618" t="inlineStr">
+        <is>
+          <t>92294</t>
+        </is>
+      </c>
+      <c r="AB618" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD618" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE618" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF618" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG618" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH618" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL618" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>81274800-9</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>ASOC.D/ASEGURADORES D/CHILE</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>15/04/2025 12:24:30</t>
+        </is>
+      </c>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>27600</t>
+        </is>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M619" t="inlineStr">
+        <is>
+          <t>27600</t>
+        </is>
+      </c>
+      <c r="N619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S619" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X619" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y619" t="inlineStr">
+        <is>
+          <t>92315</t>
+        </is>
+      </c>
+      <c r="AB619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE619" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL619" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
           <t>61</t>
         </is>
       </c>
-      <c r="B599" t="inlineStr">
+      <c r="B620" t="inlineStr">
         <is>
           <t>Del Giro</t>
         </is>
       </c>
-      <c r="C599" t="inlineStr">
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>61608408-9</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>HOSPITAL CALVO MACKENA</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>11503</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>01/04/2025 18:11:29</t>
+        </is>
+      </c>
+      <c r="J620" t="inlineStr">
+        <is>
+          <t>180000</t>
+        </is>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M620" t="inlineStr">
+        <is>
+          <t>180000</t>
+        </is>
+      </c>
+      <c r="N620" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O620" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P620" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q620" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R620" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S620" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T620" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U620" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V620" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W620" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X620" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y620" t="inlineStr">
+        <is>
+          <t>91482</t>
+        </is>
+      </c>
+      <c r="AB620" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD620" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE620" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF620" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG620" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH620" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL620" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>61608408-9</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>HOSPITAL CALVO MACKENA</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>11498</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>01/04/2025 18:11:28</t>
+        </is>
+      </c>
+      <c r="J621" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M621" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="N621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S621" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X621" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y621" t="inlineStr">
+        <is>
+          <t>91750</t>
+        </is>
+      </c>
+      <c r="AB621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE621" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL621" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>61608408-9</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>HOSPITAL CALVO MACKENA</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>11499</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>01/04/2025 18:11:28</t>
+        </is>
+      </c>
+      <c r="J622" t="inlineStr">
+        <is>
+          <t>150000</t>
+        </is>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M622" t="inlineStr">
+        <is>
+          <t>150000</t>
+        </is>
+      </c>
+      <c r="N622" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O622" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P622" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q622" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R622" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S622" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T622" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U622" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V622" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W622" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X622" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y622" t="inlineStr">
+        <is>
+          <t>88711</t>
+        </is>
+      </c>
+      <c r="AB622" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD622" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE622" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF622" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG622" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH622" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL622" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>61608408-9</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>HOSPITAL CALVO MACKENA</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>11500</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>01/04/2025 18:11:28</t>
+        </is>
+      </c>
+      <c r="J623" t="inlineStr">
+        <is>
+          <t>150000</t>
+        </is>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M623" t="inlineStr">
+        <is>
+          <t>150000</t>
+        </is>
+      </c>
+      <c r="N623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S623" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X623" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y623" t="inlineStr">
+        <is>
+          <t>91478</t>
+        </is>
+      </c>
+      <c r="AB623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE623" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>61608408-9</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>HOSPITAL CALVO MACKENA</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>11502</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>01/04/2025 18:11:29</t>
+        </is>
+      </c>
+      <c r="J624" t="inlineStr">
+        <is>
+          <t>160000</t>
+        </is>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M624" t="inlineStr">
+        <is>
+          <t>160000</t>
+        </is>
+      </c>
+      <c r="N624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S624" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X624" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y624" t="inlineStr">
+        <is>
+          <t>91481</t>
+        </is>
+      </c>
+      <c r="AB624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE624" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL624" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>61608408-9</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>HOSPITAL CALVO MACKENA</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>11501</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>01/04/2025 18:11:29</t>
+        </is>
+      </c>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>160000</t>
+        </is>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M625" t="inlineStr">
+        <is>
+          <t>160000</t>
+        </is>
+      </c>
+      <c r="N625" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O625" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P625" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q625" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R625" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S625" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T625" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U625" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V625" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W625" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X625" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y625" t="inlineStr">
+        <is>
+          <t>91480</t>
+        </is>
+      </c>
+      <c r="AB625" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD625" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE625" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF625" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG625" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH625" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL625" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>61103005-3</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>FUERZA AEREA DE CHILE-DIV.D/SA</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>11504</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>02/04/2025</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>02/04/2025 18:33:59</t>
+        </is>
+      </c>
+      <c r="J626" t="inlineStr">
+        <is>
+          <t>96650</t>
+        </is>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M626" t="inlineStr">
+        <is>
+          <t>96650</t>
+        </is>
+      </c>
+      <c r="N626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S626" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X626" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y626" t="inlineStr">
+        <is>
+          <t>91920</t>
+        </is>
+      </c>
+      <c r="AB626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE626" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL626" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
         <is>
           <t>61603000-0</t>
         </is>
       </c>
-      <c r="D599" t="inlineStr">
+      <c r="D627" t="inlineStr">
         <is>
           <t>FONASA - FONDO NACIONAL DE SALUD</t>
         </is>
       </c>
-      <c r="E599" t="inlineStr">
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>11536</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>04/04/2025 17:32:44</t>
+        </is>
+      </c>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>1235290</t>
+        </is>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M627" t="inlineStr">
+        <is>
+          <t>1235290</t>
+        </is>
+      </c>
+      <c r="N627" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O627" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P627" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q627" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R627" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S627" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T627" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U627" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V627" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W627" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X627" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y627" t="inlineStr">
+        <is>
+          <t>92085</t>
+        </is>
+      </c>
+      <c r="AB627" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD627" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE627" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF627" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG627" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH627" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL627" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>81274800-9</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>ASOC.D/ASEGURADORES D/CHILE</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>11537</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>10/04/2025 13:21:48</t>
+        </is>
+      </c>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>2852</t>
+        </is>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M628" t="inlineStr">
+        <is>
+          <t>2852</t>
+        </is>
+      </c>
+      <c r="N628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S628" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X628" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y628" t="inlineStr">
+        <is>
+          <t>86693</t>
+        </is>
+      </c>
+      <c r="AB628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE628" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL628" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Del Giro</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>61603000-0</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>FONASA - FONDO NACIONAL DE SALUD</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
         <is>
           <t>11543</t>
         </is>
       </c>
-      <c r="F599" t="inlineStr">
+      <c r="F629" t="inlineStr">
         <is>
           <t>16/04/2025</t>
         </is>
       </c>
-      <c r="G599" t="inlineStr">
+      <c r="G629" t="inlineStr">
         <is>
           <t>16/04/2025 10:09:35</t>
         </is>
       </c>
-      <c r="J599" t="inlineStr">
+      <c r="J629" t="inlineStr">
         <is>
           <t>428020</t>
         </is>
       </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L599" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M599" t="inlineStr">
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M629" t="inlineStr">
         <is>
           <t>428020</t>
         </is>
       </c>
-      <c r="N599" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O599" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P599" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q599" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R599" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S599" t="inlineStr">
+      <c r="N629" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O629" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P629" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q629" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R629" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S629" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="T599" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U599" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V599" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W599" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X599" t="inlineStr">
+      <c r="T629" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U629" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V629" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W629" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X629" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="Y599" t="inlineStr">
+      <c r="Y629" t="inlineStr">
         <is>
           <t>92645</t>
         </is>
       </c>
-      <c r="AB599" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD599" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE599" t="inlineStr">
+      <c r="AB629" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD629" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE629" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF599" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG599" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH599" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL599" t="inlineStr">
+      <c r="AF629" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG629" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH629" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL629" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ599"/>
+  <autoFilter ref="A1:AQ629"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>